--- a/Docs/BOM-ru.xlsx
+++ b/Docs/BOM-ru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egor\Documents\3D Objects\OnGitHub\ArduinoCar\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268571AA-80DF-40EB-93DA-998E32D35974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F806ABA-91B5-4941-8AF8-FA9C9E146ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71D93E3B-80D5-4A6E-A484-781879F37F49}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Материалы</t>
   </si>
@@ -127,6 +127,27 @@
   </si>
   <si>
     <t>1209/кг</t>
+  </si>
+  <si>
+    <t>количество</t>
+  </si>
+  <si>
+    <t>1шт</t>
+  </si>
+  <si>
+    <t>2шт</t>
+  </si>
+  <si>
+    <t>~1кг</t>
+  </si>
+  <si>
+    <t>36шт</t>
+  </si>
+  <si>
+    <t>23шт</t>
+  </si>
+  <si>
+    <t>Стоимость за ед ₽</t>
   </si>
 </sst>
 </file>
@@ -155,12 +176,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,10 +203,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -495,16 +523,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56A76FF-FD70-4A2F-B83D-10148B9D5A17}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.140625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="123.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -513,6 +543,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="F1" t="s">
@@ -526,6 +562,12 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>152</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
@@ -537,6 +579,12 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>76</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
@@ -548,6 +596,12 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>128</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
@@ -559,6 +613,12 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
@@ -570,6 +630,12 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>249</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
       </c>
@@ -581,6 +647,12 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>61</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
@@ -592,6 +664,12 @@
       <c r="B8" t="s">
         <v>22</v>
       </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>216</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
@@ -603,6 +681,12 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>94</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
@@ -614,8 +698,20 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>1209</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <f>SUM(D2:D10)</f>
+        <v>2207</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/BOM-ru.xlsx
+++ b/Docs/BOM-ru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egor\Documents\3D Objects\OnGitHub\ArduinoCar\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F806ABA-91B5-4941-8AF8-FA9C9E146ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA7544C-2DF4-40AF-9640-E1DA7802FC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71D93E3B-80D5-4A6E-A484-781879F37F49}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +634,7 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>249</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
@@ -651,7 +651,7 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>21</v>
@@ -668,7 +668,7 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>24</v>
@@ -685,7 +685,7 @@
         <v>34</v>
       </c>
       <c r="D9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>26</v>
@@ -711,7 +711,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="3">
         <f>SUM(D2:D10)</f>
-        <v>2207</v>
+        <v>1922</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/BOM-ru.xlsx
+++ b/Docs/BOM-ru.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egor\Documents\3D Objects\OnGitHub\ArduinoCar\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA7544C-2DF4-40AF-9640-E1DA7802FC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C4DE55-6548-4E80-90D6-0DCC22DB97B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{71D93E3B-80D5-4A6E-A484-781879F37F49}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>2шт</t>
   </si>
   <si>
-    <t>~1кг</t>
-  </si>
-  <si>
     <t>36шт</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Стоимость за ед ₽</t>
+  </si>
+  <si>
+    <t>0,5кг</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>48</v>
@@ -665,7 +665,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>195</v>
@@ -682,7 +682,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>85</v>
@@ -699,10 +699,10 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>1209</v>
+        <v>605</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>28</v>
@@ -711,7 +711,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="3">
         <f>SUM(D2:D10)</f>
-        <v>1922</v>
+        <v>1318</v>
       </c>
     </row>
   </sheetData>
